--- a/Team-Data/2008-09/1-29-2008-09.xlsx
+++ b/Team-Data/2008-09/1-29-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,22 +811,22 @@
         <v>1.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE2" t="n">
         <v>10</v>
       </c>
       <c r="AF2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ2" t="n">
         <v>19</v>
@@ -777,10 +844,10 @@
         <v>15</v>
       </c>
       <c r="AO2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ2" t="n">
         <v>29</v>
@@ -798,7 +865,7 @@
         <v>10</v>
       </c>
       <c r="AV2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW2" t="n">
         <v>12</v>
@@ -810,13 +877,13 @@
         <v>12</v>
       </c>
       <c r="AZ2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA2" t="n">
         <v>21</v>
       </c>
       <c r="BB2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC2" t="n">
         <v>11</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-29-2008-09</t>
+          <t>2009-01-29</t>
         </is>
       </c>
     </row>
@@ -848,85 +915,85 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F3" t="n">
         <v>9</v>
       </c>
       <c r="G3" t="n">
-        <v>0.804</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="H3" t="n">
         <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J3" t="n">
-        <v>77.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="K3" t="n">
-        <v>0.484</v>
+        <v>0.483</v>
       </c>
       <c r="L3" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M3" t="n">
         <v>17.2</v>
       </c>
       <c r="N3" t="n">
-        <v>0.393</v>
+        <v>0.39</v>
       </c>
       <c r="O3" t="n">
         <v>20.4</v>
       </c>
       <c r="P3" t="n">
-        <v>26.3</v>
+        <v>26.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.774</v>
+        <v>0.769</v>
       </c>
       <c r="R3" t="n">
         <v>10.8</v>
       </c>
       <c r="S3" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T3" t="n">
-        <v>42.8</v>
+        <v>42.6</v>
       </c>
       <c r="U3" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="V3" t="n">
         <v>15.8</v>
       </c>
       <c r="W3" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X3" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.8</v>
+        <v>101.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -938,7 +1005,7 @@
         <v>2</v>
       </c>
       <c r="AH3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI3" t="n">
         <v>9</v>
@@ -950,13 +1017,13 @@
         <v>2</v>
       </c>
       <c r="AL3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO3" t="n">
         <v>7</v>
@@ -965,7 +1032,7 @@
         <v>7</v>
       </c>
       <c r="AQ3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR3" t="n">
         <v>16</v>
@@ -974,10 +1041,10 @@
         <v>5</v>
       </c>
       <c r="AT3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV3" t="n">
         <v>27</v>
@@ -986,10 +1053,10 @@
         <v>3</v>
       </c>
       <c r="AX3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ3" t="n">
         <v>27</v>
@@ -998,7 +1065,7 @@
         <v>4</v>
       </c>
       <c r="BB3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC3" t="n">
         <v>2</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-29-2008-09</t>
+          <t>2009-01-29</t>
         </is>
       </c>
     </row>
@@ -1108,13 +1175,13 @@
         <v>-1.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
         <v>20</v>
       </c>
       <c r="AF4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG4" t="n">
         <v>20</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-29-2008-09</t>
+          <t>2009-01-29</t>
         </is>
       </c>
     </row>
@@ -1212,61 +1279,61 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" t="n">
         <v>27</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4</v>
+        <v>0.413</v>
       </c>
       <c r="H5" t="n">
         <v>48.7</v>
       </c>
       <c r="I5" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J5" t="n">
-        <v>84</v>
+        <v>83.7</v>
       </c>
       <c r="K5" t="n">
-        <v>0.444</v>
+        <v>0.445</v>
       </c>
       <c r="L5" t="n">
         <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="N5" t="n">
         <v>0.372</v>
       </c>
       <c r="O5" t="n">
-        <v>18.4</v>
+        <v>18.7</v>
       </c>
       <c r="P5" t="n">
-        <v>23.2</v>
+        <v>23.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.794</v>
+        <v>0.792</v>
       </c>
       <c r="R5" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S5" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T5" t="n">
         <v>42.4</v>
       </c>
       <c r="U5" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="V5" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W5" t="n">
         <v>7.3</v>
@@ -1278,40 +1345,40 @@
         <v>5.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="AA5" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE5" t="n">
         <v>20</v>
       </c>
-      <c r="AB5" t="n">
-        <v>99</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>-3.3</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>22</v>
-      </c>
       <c r="AF5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG5" t="n">
         <v>20</v>
       </c>
-      <c r="AG5" t="n">
-        <v>22</v>
-      </c>
       <c r="AH5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AJ5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK5" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AL5" t="n">
         <v>20</v>
@@ -1320,13 +1387,13 @@
         <v>22</v>
       </c>
       <c r="AN5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP5" t="n">
         <v>20</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>22</v>
       </c>
       <c r="AQ5" t="n">
         <v>8</v>
@@ -1338,7 +1405,7 @@
         <v>13</v>
       </c>
       <c r="AT5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU5" t="n">
         <v>13</v>
@@ -1350,23 +1417,23 @@
         <v>13</v>
       </c>
       <c r="AX5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AZ5" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>23</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC5" t="n">
         <v>22</v>
       </c>
-      <c r="BA5" t="n">
-        <v>24</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>13</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>24</v>
-      </c>
       <c r="BD5" t="n">
         <v>10</v>
       </c>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-29-2008-09</t>
+          <t>2009-01-29</t>
         </is>
       </c>
     </row>
@@ -1409,49 +1476,49 @@
         <v>48.1</v>
       </c>
       <c r="I6" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J6" t="n">
-        <v>78.40000000000001</v>
+        <v>78</v>
       </c>
       <c r="K6" t="n">
-        <v>0.476</v>
+        <v>0.477</v>
       </c>
       <c r="L6" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="M6" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="N6" t="n">
-        <v>0.374</v>
+        <v>0.37</v>
       </c>
       <c r="O6" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="P6" t="n">
-        <v>25.1</v>
+        <v>25.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.752</v>
+        <v>0.753</v>
       </c>
       <c r="R6" t="n">
         <v>10.7</v>
       </c>
       <c r="S6" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T6" t="n">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="U6" t="n">
         <v>20.5</v>
       </c>
       <c r="V6" t="n">
-        <v>12.9</v>
+        <v>13.2</v>
       </c>
       <c r="W6" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X6" t="n">
         <v>5.8</v>
@@ -1460,16 +1527,16 @@
         <v>4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.3</v>
+        <v>101.2</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="AD6" t="n">
         <v>28</v>
@@ -1487,28 +1554,28 @@
         <v>24</v>
       </c>
       <c r="AI6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AK6" t="n">
         <v>3</v>
       </c>
       <c r="AL6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM6" t="n">
         <v>5</v>
       </c>
       <c r="AN6" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AO6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AP6" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AQ6" t="n">
         <v>23</v>
@@ -1526,22 +1593,22 @@
         <v>15</v>
       </c>
       <c r="AV6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW6" t="n">
         <v>8</v>
       </c>
       <c r="AX6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY6" t="n">
         <v>5</v>
       </c>
       <c r="AZ6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BB6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-29-2008-09</t>
+          <t>2009-01-29</t>
         </is>
       </c>
     </row>
@@ -1654,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="AD7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE7" t="n">
         <v>10</v>
       </c>
       <c r="AF7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
         <v>16</v>
@@ -1717,7 +1784,7 @@
         <v>8</v>
       </c>
       <c r="AY7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ7" t="n">
         <v>2</v>
@@ -1729,7 +1796,7 @@
         <v>11</v>
       </c>
       <c r="BC7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-29-2008-09</t>
+          <t>2009-01-29</t>
         </is>
       </c>
     </row>
@@ -1836,10 +1903,10 @@
         <v>3.7</v>
       </c>
       <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
         <v>5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>6</v>
       </c>
       <c r="AF8" t="n">
         <v>7</v>
@@ -1854,19 +1921,19 @@
         <v>12</v>
       </c>
       <c r="AJ8" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AK8" t="n">
         <v>6</v>
       </c>
       <c r="AL8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM8" t="n">
         <v>14</v>
       </c>
       <c r="AN8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-29-2008-09</t>
+          <t>2009-01-29</t>
         </is>
       </c>
     </row>
@@ -2018,22 +2085,22 @@
         <v>0.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE9" t="n">
         <v>12</v>
       </c>
       <c r="AF9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
         <v>14</v>
       </c>
       <c r="AI9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ9" t="n">
         <v>20</v>
@@ -2087,7 +2154,7 @@
         <v>17</v>
       </c>
       <c r="BA9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB9" t="n">
         <v>27</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-29-2008-09</t>
+          <t>2009-01-29</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-4.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
         <v>25</v>
@@ -2239,10 +2306,10 @@
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS10" t="n">
         <v>14</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-29-2008-09</t>
+          <t>2009-01-29</t>
         </is>
       </c>
     </row>
@@ -2388,7 +2455,7 @@
         <v>7</v>
       </c>
       <c r="AF11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG11" t="n">
         <v>9</v>
@@ -2403,7 +2470,7 @@
         <v>17</v>
       </c>
       <c r="AK11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL11" t="n">
         <v>8</v>
@@ -2412,7 +2479,7 @@
         <v>9</v>
       </c>
       <c r="AN11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO11" t="n">
         <v>13</v>
@@ -2430,7 +2497,7 @@
         <v>3</v>
       </c>
       <c r="AT11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU11" t="n">
         <v>19</v>
@@ -2445,13 +2512,13 @@
         <v>29</v>
       </c>
       <c r="AY11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ11" t="n">
         <v>3</v>
       </c>
       <c r="BA11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB11" t="n">
         <v>20</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-29-2008-09</t>
+          <t>2009-01-29</t>
         </is>
       </c>
     </row>
@@ -2564,10 +2631,10 @@
         <v>-2.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF12" t="n">
         <v>22</v>
@@ -2576,7 +2643,7 @@
         <v>23</v>
       </c>
       <c r="AH12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI12" t="n">
         <v>2</v>
@@ -2597,10 +2664,10 @@
         <v>17</v>
       </c>
       <c r="AO12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ12" t="n">
         <v>6</v>
@@ -2627,10 +2694,10 @@
         <v>14</v>
       </c>
       <c r="AY12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
         <v>12</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-29-2008-09</t>
+          <t>2009-01-29</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-7.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE13" t="n">
         <v>28</v>
@@ -2758,7 +2825,7 @@
         <v>28</v>
       </c>
       <c r="AH13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI13" t="n">
         <v>28</v>
@@ -2794,7 +2861,7 @@
         <v>24</v>
       </c>
       <c r="AT13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU13" t="n">
         <v>26</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-29-2008-09</t>
+          <t>2009-01-29</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E14" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F14" t="n">
         <v>9</v>
       </c>
       <c r="G14" t="n">
-        <v>0.791</v>
+        <v>0.795</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
@@ -2868,7 +2935,7 @@
         <v>39.9</v>
       </c>
       <c r="J14" t="n">
-        <v>83.90000000000001</v>
+        <v>83.8</v>
       </c>
       <c r="K14" t="n">
         <v>0.476</v>
@@ -2877,31 +2944,31 @@
         <v>7.1</v>
       </c>
       <c r="M14" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="N14" t="n">
-        <v>0.376</v>
+        <v>0.38</v>
       </c>
       <c r="O14" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="P14" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="Q14" t="n">
         <v>0.769</v>
       </c>
       <c r="R14" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="S14" t="n">
-        <v>31.5</v>
+        <v>31.7</v>
       </c>
       <c r="T14" t="n">
-        <v>43.8</v>
+        <v>43.9</v>
       </c>
       <c r="U14" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="V14" t="n">
         <v>13.8</v>
@@ -2916,22 +2983,22 @@
         <v>4.3</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.9</v>
+        <v>107.7</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF14" t="n">
         <v>2</v>
@@ -2940,13 +3007,13 @@
         <v>3</v>
       </c>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI14" t="n">
         <v>1</v>
       </c>
       <c r="AJ14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK14" t="n">
         <v>4</v>
@@ -2958,7 +3025,7 @@
         <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO14" t="n">
         <v>4</v>
@@ -2967,13 +3034,13 @@
         <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AR14" t="n">
         <v>6</v>
       </c>
       <c r="AS14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2991,10 +3058,10 @@
         <v>10</v>
       </c>
       <c r="AY14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA14" t="n">
         <v>5</v>
@@ -3003,7 +3070,7 @@
         <v>1</v>
       </c>
       <c r="BC14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-29-2008-09</t>
+          <t>2009-01-29</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-6.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3143,7 +3210,7 @@
         <v>27</v>
       </c>
       <c r="AO15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP15" t="n">
         <v>8</v>
@@ -3170,7 +3237,7 @@
         <v>9</v>
       </c>
       <c r="AX15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY15" t="n">
         <v>21</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-29-2008-09</t>
+          <t>2009-01-29</t>
         </is>
       </c>
     </row>
@@ -3292,16 +3359,16 @@
         <v>0.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
         <v>12</v>
       </c>
       <c r="AF16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
         <v>14</v>
@@ -3355,10 +3422,10 @@
         <v>6</v>
       </c>
       <c r="AY16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA16" t="n">
         <v>26</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-29-2008-09</t>
+          <t>2009-01-29</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E17" t="n">
         <v>22</v>
       </c>
       <c r="F17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G17" t="n">
-        <v>0.458</v>
+        <v>0.449</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3414,7 +3481,7 @@
         <v>36.5</v>
       </c>
       <c r="J17" t="n">
-        <v>81.59999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="K17" t="n">
         <v>0.447</v>
@@ -3426,31 +3493,31 @@
         <v>15.9</v>
       </c>
       <c r="N17" t="n">
-        <v>0.346</v>
+        <v>0.348</v>
       </c>
       <c r="O17" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="P17" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.782</v>
+        <v>0.781</v>
       </c>
       <c r="R17" t="n">
         <v>12.3</v>
       </c>
       <c r="S17" t="n">
-        <v>29.5</v>
+        <v>29.2</v>
       </c>
       <c r="T17" t="n">
-        <v>41.7</v>
+        <v>41.5</v>
       </c>
       <c r="U17" t="n">
         <v>21.2</v>
       </c>
       <c r="V17" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W17" t="n">
         <v>7.2</v>
@@ -3462,16 +3529,16 @@
         <v>4.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="AA17" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="AB17" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -3480,7 +3547,7 @@
         <v>16</v>
       </c>
       <c r="AF17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG17" t="n">
         <v>17</v>
@@ -3510,16 +3577,16 @@
         <v>8</v>
       </c>
       <c r="AP17" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AQ17" t="n">
         <v>9</v>
       </c>
       <c r="AR17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT17" t="n">
         <v>14</v>
@@ -3531,16 +3598,16 @@
         <v>16</v>
       </c>
       <c r="AW17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX17" t="n">
         <v>28</v>
       </c>
       <c r="AY17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA17" t="n">
         <v>6</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-29-2008-09</t>
+          <t>2009-01-29</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-3.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE18" t="n">
         <v>24</v>
@@ -3689,13 +3756,13 @@
         <v>23</v>
       </c>
       <c r="AO18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP18" t="n">
         <v>16</v>
       </c>
       <c r="AQ18" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AR18" t="n">
         <v>3</v>
@@ -3728,10 +3795,10 @@
         <v>22</v>
       </c>
       <c r="BB18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-29-2008-09</t>
+          <t>2009-01-29</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-3</v>
       </c>
       <c r="AD19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE19" t="n">
         <v>18</v>
@@ -3850,7 +3917,7 @@
         <v>19</v>
       </c>
       <c r="AH19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI19" t="n">
         <v>25</v>
@@ -3868,13 +3935,13 @@
         <v>4</v>
       </c>
       <c r="AN19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO19" t="n">
         <v>9</v>
       </c>
       <c r="AP19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ19" t="n">
         <v>10</v>
@@ -3907,13 +3974,13 @@
         <v>26</v>
       </c>
       <c r="BA19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-29-2008-09</t>
+          <t>2009-01-29</t>
         </is>
       </c>
     </row>
@@ -4044,13 +4111,13 @@
         <v>11</v>
       </c>
       <c r="AL20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM20" t="n">
         <v>10</v>
       </c>
       <c r="AN20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO20" t="n">
         <v>22</v>
@@ -4086,7 +4153,7 @@
         <v>1</v>
       </c>
       <c r="AZ20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA20" t="n">
         <v>14</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-29-2008-09</t>
+          <t>2009-01-29</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE21" t="n">
         <v>18</v>
@@ -4214,7 +4281,7 @@
         <v>18</v>
       </c>
       <c r="AH21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI21" t="n">
         <v>7</v>
@@ -4250,7 +4317,7 @@
         <v>9</v>
       </c>
       <c r="AT21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU21" t="n">
         <v>9</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-29-2008-09</t>
+          <t>2009-01-29</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>-6</v>
       </c>
       <c r="AD22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
         <v>26</v>
@@ -4432,13 +4499,13 @@
         <v>10</v>
       </c>
       <c r="AT22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU22" t="n">
         <v>24</v>
       </c>
       <c r="AV22" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AW22" t="n">
         <v>23</v>
@@ -4450,7 +4517,7 @@
         <v>22</v>
       </c>
       <c r="AZ22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA22" t="n">
         <v>19</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-29-2008-09</t>
+          <t>2009-01-29</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E23" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F23" t="n">
         <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>0.778</v>
+        <v>0.773</v>
       </c>
       <c r="H23" t="n">
         <v>48.1</v>
@@ -4515,61 +4582,61 @@
         <v>10.5</v>
       </c>
       <c r="M23" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="N23" t="n">
-        <v>0.4</v>
+        <v>0.402</v>
       </c>
       <c r="O23" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="P23" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.726</v>
+        <v>0.723</v>
       </c>
       <c r="R23" t="n">
         <v>10</v>
       </c>
       <c r="S23" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="T23" t="n">
-        <v>43</v>
+        <v>42.8</v>
       </c>
       <c r="U23" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="V23" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W23" t="n">
         <v>7.2</v>
       </c>
       <c r="X23" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y23" t="n">
         <v>3.7</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA23" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AB23" t="n">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
       <c r="AC23" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD23" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AE23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AF23" t="n">
         <v>4</v>
@@ -4578,13 +4645,13 @@
         <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI23" t="n">
         <v>17</v>
       </c>
       <c r="AJ23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK23" t="n">
         <v>9</v>
@@ -4614,7 +4681,7 @@
         <v>1</v>
       </c>
       <c r="AT23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU23" t="n">
         <v>28</v>
@@ -4623,16 +4690,16 @@
         <v>14</v>
       </c>
       <c r="AW23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX23" t="n">
         <v>7</v>
       </c>
       <c r="AY23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA23" t="n">
         <v>8</v>
@@ -4641,7 +4708,7 @@
         <v>7</v>
       </c>
       <c r="BC23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-29-2008-09</t>
+          <t>2009-01-29</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>0.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE24" t="n">
         <v>16</v>
@@ -4796,7 +4863,7 @@
         <v>15</v>
       </c>
       <c r="AT24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU24" t="n">
         <v>16</v>
@@ -4814,7 +4881,7 @@
         <v>15</v>
       </c>
       <c r="AZ24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA24" t="n">
         <v>20</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-29-2008-09</t>
+          <t>2009-01-29</t>
         </is>
       </c>
     </row>
@@ -4852,64 +4919,64 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E25" t="n">
         <v>25</v>
       </c>
       <c r="F25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.581</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
       </c>
       <c r="I25" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="J25" t="n">
-        <v>77.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="K25" t="n">
         <v>0.495</v>
       </c>
       <c r="L25" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M25" t="n">
-        <v>17</v>
+        <v>17.3</v>
       </c>
       <c r="N25" t="n">
-        <v>0.387</v>
+        <v>0.385</v>
       </c>
       <c r="O25" t="n">
         <v>20.4</v>
       </c>
       <c r="P25" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.759</v>
+        <v>0.758</v>
       </c>
       <c r="R25" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="S25" t="n">
         <v>31.7</v>
       </c>
       <c r="T25" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="U25" t="n">
         <v>21.8</v>
       </c>
       <c r="V25" t="n">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="W25" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="X25" t="n">
         <v>5</v>
@@ -4918,19 +4985,19 @@
         <v>4.1</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AA25" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AB25" t="n">
         <v>103.8</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AD25" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AE25" t="n">
         <v>12</v>
@@ -4939,10 +5006,10 @@
         <v>9</v>
       </c>
       <c r="AG25" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI25" t="n">
         <v>4</v>
@@ -4957,7 +5024,7 @@
         <v>16</v>
       </c>
       <c r="AM25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN25" t="n">
         <v>5</v>
@@ -4975,25 +5042,25 @@
         <v>27</v>
       </c>
       <c r="AS25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV25" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AW25" t="n">
         <v>29</v>
       </c>
       <c r="AX25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ25" t="n">
         <v>11</v>
@@ -5005,7 +5072,7 @@
         <v>5</v>
       </c>
       <c r="BC25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-29-2008-09</t>
+          <t>2009-01-29</t>
         </is>
       </c>
     </row>
@@ -5034,52 +5101,52 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E26" t="n">
         <v>28</v>
       </c>
       <c r="F26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G26" t="n">
-        <v>0.636</v>
+        <v>0.622</v>
       </c>
       <c r="H26" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J26" t="n">
-        <v>78.40000000000001</v>
+        <v>78.5</v>
       </c>
       <c r="K26" t="n">
-        <v>0.459</v>
+        <v>0.457</v>
       </c>
       <c r="L26" t="n">
         <v>7.3</v>
       </c>
       <c r="M26" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="N26" t="n">
-        <v>0.375</v>
+        <v>0.376</v>
       </c>
       <c r="O26" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="P26" t="n">
-        <v>25.4</v>
+        <v>25.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.763</v>
+        <v>0.76</v>
       </c>
       <c r="R26" t="n">
         <v>13.2</v>
       </c>
       <c r="S26" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="T26" t="n">
         <v>40.9</v>
@@ -5088,7 +5155,7 @@
         <v>20.2</v>
       </c>
       <c r="V26" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="W26" t="n">
         <v>7</v>
@@ -5097,28 +5164,28 @@
         <v>5</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AB26" t="n">
-        <v>98.7</v>
+        <v>98.2</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
       </c>
       <c r="AF26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG26" t="n">
         <v>8</v>
@@ -5127,7 +5194,7 @@
         <v>11</v>
       </c>
       <c r="AI26" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AJ26" t="n">
         <v>21</v>
@@ -5145,10 +5212,10 @@
         <v>10</v>
       </c>
       <c r="AO26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AP26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AQ26" t="n">
         <v>17</v>
@@ -5163,28 +5230,28 @@
         <v>19</v>
       </c>
       <c r="AU26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV26" t="n">
         <v>5</v>
       </c>
       <c r="AW26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX26" t="n">
         <v>12</v>
       </c>
       <c r="AY26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA26" t="n">
         <v>11</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BC26" t="n">
         <v>5</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-29-2008-09</t>
+          <t>2009-01-29</t>
         </is>
       </c>
     </row>
@@ -5330,7 +5397,7 @@
         <v>6</v>
       </c>
       <c r="AP27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ27" t="n">
         <v>4</v>
@@ -5366,7 +5433,7 @@
         <v>10</v>
       </c>
       <c r="BB27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-29-2008-09</t>
+          <t>2009-01-29</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E28" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F28" t="n">
         <v>14</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="H28" t="n">
         <v>48.7</v>
@@ -5416,7 +5483,7 @@
         <v>36.7</v>
       </c>
       <c r="J28" t="n">
-        <v>79.2</v>
+        <v>79.3</v>
       </c>
       <c r="K28" t="n">
         <v>0.463</v>
@@ -5428,55 +5495,55 @@
         <v>20.6</v>
       </c>
       <c r="N28" t="n">
-        <v>0.393</v>
+        <v>0.394</v>
       </c>
       <c r="O28" t="n">
-        <v>15.8</v>
+        <v>15.3</v>
       </c>
       <c r="P28" t="n">
-        <v>20.6</v>
+        <v>20.1</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.764</v>
+        <v>0.759</v>
       </c>
       <c r="R28" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="S28" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="T28" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="U28" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="V28" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="W28" t="n">
         <v>5.8</v>
       </c>
       <c r="X28" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y28" t="n">
         <v>4.1</v>
       </c>
       <c r="Z28" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AB28" t="n">
-        <v>97.2</v>
+        <v>96.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AE28" t="n">
         <v>5</v>
@@ -5506,7 +5573,7 @@
         <v>6</v>
       </c>
       <c r="AN28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AO28" t="n">
         <v>30</v>
@@ -5515,19 +5582,19 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
       </c>
       <c r="AS28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT28" t="n">
         <v>22</v>
       </c>
       <c r="AU28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV28" t="n">
         <v>2</v>
@@ -5536,10 +5603,10 @@
         <v>30</v>
       </c>
       <c r="AX28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-29-2008-09</t>
+          <t>2009-01-29</t>
         </is>
       </c>
     </row>
@@ -5667,7 +5734,7 @@
         <v>22</v>
       </c>
       <c r="AG29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH29" t="n">
         <v>18</v>
@@ -5676,7 +5743,7 @@
         <v>18</v>
       </c>
       <c r="AJ29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK29" t="n">
         <v>8</v>
@@ -5691,10 +5758,10 @@
         <v>6</v>
       </c>
       <c r="AO29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -5727,7 +5794,7 @@
         <v>4</v>
       </c>
       <c r="BA29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB29" t="n">
         <v>19</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-29-2008-09</t>
+          <t>2009-01-29</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>2.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE30" t="n">
         <v>12</v>
@@ -5885,7 +5952,7 @@
         <v>8</v>
       </c>
       <c r="AS30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT30" t="n">
         <v>15</v>
@@ -5900,7 +5967,7 @@
         <v>2</v>
       </c>
       <c r="AX30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY30" t="n">
         <v>16</v>
@@ -5912,7 +5979,7 @@
         <v>3</v>
       </c>
       <c r="BB30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-29-2008-09</t>
+          <t>2009-01-29</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-7.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE31" t="n">
         <v>30</v>
@@ -6034,7 +6101,7 @@
         <v>30</v>
       </c>
       <c r="AH31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI31" t="n">
         <v>21</v>
@@ -6043,7 +6110,7 @@
         <v>11</v>
       </c>
       <c r="AK31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL31" t="n">
         <v>25</v>
@@ -6073,7 +6140,7 @@
         <v>25</v>
       </c>
       <c r="AU31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV31" t="n">
         <v>12</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-29-2008-09</t>
+          <t>2009-01-29</t>
         </is>
       </c>
     </row>
